--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H2">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J2">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.338873144699519</v>
+        <v>10.000565</v>
       </c>
       <c r="N2">
-        <v>8.338873144699519</v>
+        <v>30.001695</v>
       </c>
       <c r="O2">
-        <v>0.5919596364116285</v>
+        <v>0.6316353758144477</v>
       </c>
       <c r="P2">
-        <v>0.5919596364116285</v>
+        <v>0.6316353758144477</v>
       </c>
       <c r="Q2">
-        <v>70.75723601858795</v>
+        <v>91.57476701535668</v>
       </c>
       <c r="R2">
-        <v>70.75723601858795</v>
+        <v>824.17290313821</v>
       </c>
       <c r="S2">
-        <v>0.5728876854697745</v>
+        <v>0.6123512090853941</v>
       </c>
       <c r="T2">
-        <v>0.5728876854697745</v>
+        <v>0.6123512090853941</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H3">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J3">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.1851961211806</v>
+        <v>4.264793333333333</v>
       </c>
       <c r="N3">
-        <v>4.1851961211806</v>
+        <v>12.79438</v>
       </c>
       <c r="O3">
-        <v>0.2970985565094237</v>
+        <v>0.2693642149089528</v>
       </c>
       <c r="P3">
-        <v>0.2970985565094237</v>
+        <v>0.2693642149089528</v>
       </c>
       <c r="Q3">
-        <v>35.51234136697318</v>
+        <v>39.05253911840445</v>
       </c>
       <c r="R3">
-        <v>35.51234136697318</v>
+        <v>351.47285206564</v>
       </c>
       <c r="S3">
-        <v>0.2875265371585921</v>
+        <v>0.2611403809850739</v>
       </c>
       <c r="T3">
-        <v>0.2875265371585921</v>
+        <v>0.2611403809850738</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H4">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J4">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.56282556912676</v>
+        <v>1.567455</v>
       </c>
       <c r="N4">
-        <v>1.56282556912676</v>
+        <v>4.702364999999999</v>
       </c>
       <c r="O4">
-        <v>0.1109418070789479</v>
+        <v>0.09900040927659938</v>
       </c>
       <c r="P4">
-        <v>0.1109418070789479</v>
+        <v>0.09900040927659938</v>
       </c>
       <c r="Q4">
-        <v>13.26093055161482</v>
+        <v>14.35312169183</v>
       </c>
       <c r="R4">
-        <v>13.26093055161482</v>
+        <v>129.17809522647</v>
       </c>
       <c r="S4">
-        <v>0.1073674473221974</v>
+        <v>0.09597787369383093</v>
       </c>
       <c r="T4">
-        <v>0.1073674473221974</v>
+        <v>0.09597787369383091</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.28248092494081</v>
+        <v>0.288371</v>
       </c>
       <c r="H5">
-        <v>0.28248092494081</v>
+        <v>0.865113</v>
       </c>
       <c r="I5">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="J5">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.338873144699519</v>
+        <v>10.000565</v>
       </c>
       <c r="N5">
-        <v>8.338873144699519</v>
+        <v>30.001695</v>
       </c>
       <c r="O5">
-        <v>0.5919596364116285</v>
+        <v>0.6316353758144477</v>
       </c>
       <c r="P5">
-        <v>0.5919596364116285</v>
+        <v>0.6316353758144477</v>
       </c>
       <c r="Q5">
-        <v>2.355572598878801</v>
+        <v>2.883872929615</v>
       </c>
       <c r="R5">
-        <v>2.355572598878801</v>
+        <v>25.954856366535</v>
       </c>
       <c r="S5">
-        <v>0.01907195094185405</v>
+        <v>0.01928416672905367</v>
       </c>
       <c r="T5">
-        <v>0.01907195094185405</v>
+        <v>0.01928416672905367</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.28248092494081</v>
+        <v>0.288371</v>
       </c>
       <c r="H6">
-        <v>0.28248092494081</v>
+        <v>0.865113</v>
       </c>
       <c r="I6">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="J6">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.1851961211806</v>
+        <v>4.264793333333333</v>
       </c>
       <c r="N6">
-        <v>4.1851961211806</v>
+        <v>12.79438</v>
       </c>
       <c r="O6">
-        <v>0.2970985565094237</v>
+        <v>0.2693642149089528</v>
       </c>
       <c r="P6">
-        <v>0.2970985565094237</v>
+        <v>0.2693642149089528</v>
       </c>
       <c r="Q6">
-        <v>1.182238071369786</v>
+        <v>1.229842718326667</v>
       </c>
       <c r="R6">
-        <v>1.182238071369786</v>
+        <v>11.06858446494</v>
       </c>
       <c r="S6">
-        <v>0.009572019350831662</v>
+        <v>0.008223833923878958</v>
       </c>
       <c r="T6">
-        <v>0.009572019350831662</v>
+        <v>0.008223833923878958</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.28248092494081</v>
+        <v>0.288371</v>
       </c>
       <c r="H7">
-        <v>0.28248092494081</v>
+        <v>0.865113</v>
       </c>
       <c r="I7">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="J7">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.56282556912676</v>
+        <v>1.567455</v>
       </c>
       <c r="N7">
-        <v>1.56282556912676</v>
+        <v>4.702364999999999</v>
       </c>
       <c r="O7">
-        <v>0.1109418070789479</v>
+        <v>0.09900040927659938</v>
       </c>
       <c r="P7">
-        <v>0.1109418070789479</v>
+        <v>0.09900040927659938</v>
       </c>
       <c r="Q7">
-        <v>0.441468412288075</v>
+        <v>0.4520085658049999</v>
       </c>
       <c r="R7">
-        <v>0.441468412288075</v>
+        <v>4.068077092245</v>
       </c>
       <c r="S7">
-        <v>0.003574359756750411</v>
+        <v>0.003022535582768455</v>
       </c>
       <c r="T7">
-        <v>0.003574359756750411</v>
+        <v>0.003022535582768455</v>
       </c>
     </row>
   </sheetData>
